--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H2">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I2">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J2">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N2">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O2">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P2">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q2">
-        <v>4.240006561596321</v>
+        <v>1.032061133347222</v>
       </c>
       <c r="R2">
-        <v>4.240006561596321</v>
+        <v>9.288550200124998</v>
       </c>
       <c r="S2">
-        <v>7.634229679691889E-05</v>
+        <v>1.687346221469491E-05</v>
       </c>
       <c r="T2">
-        <v>7.634229679691889E-05</v>
+        <v>1.687346221469491E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H3">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I3">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J3">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N3">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O3">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P3">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q3">
-        <v>54.0618016563084</v>
+        <v>5.061486481741111</v>
       </c>
       <c r="R3">
-        <v>54.0618016563084</v>
+        <v>45.55337833567</v>
       </c>
       <c r="S3">
-        <v>0.0009733952170744298</v>
+        <v>8.275168799629093E-05</v>
       </c>
       <c r="T3">
-        <v>0.0009733952170744298</v>
+        <v>8.275168799629093E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H4">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I4">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J4">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N4">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O4">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P4">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q4">
-        <v>79.32497667466866</v>
+        <v>7.912427994497778</v>
       </c>
       <c r="R4">
-        <v>79.32497667466866</v>
+        <v>71.21185195048</v>
       </c>
       <c r="S4">
-        <v>0.001428264514389396</v>
+        <v>0.0001293625449866979</v>
       </c>
       <c r="T4">
-        <v>0.001428264514389396</v>
+        <v>0.0001293625449866979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H5">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I5">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J5">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N5">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O5">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P5">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q5">
-        <v>86.17433404840038</v>
+        <v>8.096191145788888</v>
       </c>
       <c r="R5">
-        <v>86.17433404840038</v>
+        <v>72.8657203121</v>
       </c>
       <c r="S5">
-        <v>0.001551588774835051</v>
+        <v>0.0001323669412279433</v>
       </c>
       <c r="T5">
-        <v>0.001551588774835051</v>
+        <v>0.0001323669412279433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H6">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I6">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J6">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N6">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O6">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P6">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q6">
-        <v>16.35622113324125</v>
+        <v>1.588210662218889</v>
       </c>
       <c r="R6">
-        <v>16.35622113324125</v>
+        <v>14.29389595997</v>
       </c>
       <c r="S6">
-        <v>0.0002944975367584874</v>
+        <v>2.596610969256411E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002944975367584874</v>
+        <v>2.596610969256411E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H7">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I7">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J7">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N7">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O7">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P7">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q7">
-        <v>27.64094342549736</v>
+        <v>2.762593608485</v>
       </c>
       <c r="R7">
-        <v>27.64094342549736</v>
+        <v>24.863342476365</v>
       </c>
       <c r="S7">
-        <v>0.0004976815663091106</v>
+        <v>4.516643187225474E-05</v>
       </c>
       <c r="T7">
-        <v>0.0004976815663091106</v>
+        <v>4.516643187225473E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.7501948198675</v>
+        <v>1.448602</v>
       </c>
       <c r="H8">
-        <v>56.7501948198675</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I8">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J8">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N8">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O8">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P8">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q8">
-        <v>166.7390047207956</v>
+        <v>11.07455021831667</v>
       </c>
       <c r="R8">
-        <v>166.7390047207956</v>
+        <v>99.67095196485</v>
       </c>
       <c r="S8">
-        <v>0.003002174265792976</v>
+        <v>0.0001810609842921381</v>
       </c>
       <c r="T8">
-        <v>0.003002174265792976</v>
+        <v>0.0001810609842921381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.7501948198675</v>
+        <v>1.448602</v>
       </c>
       <c r="H9">
-        <v>56.7501948198675</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I9">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J9">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N9">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O9">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P9">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q9">
-        <v>2125.989870683634</v>
+        <v>54.31237008177734</v>
       </c>
       <c r="R9">
-        <v>2125.989870683634</v>
+        <v>488.811330735996</v>
       </c>
       <c r="S9">
-        <v>0.03827893833113968</v>
+        <v>0.0008879684494979177</v>
       </c>
       <c r="T9">
-        <v>0.03827893833113968</v>
+        <v>0.0008879684494979177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.7501948198675</v>
+        <v>1.448602</v>
       </c>
       <c r="H10">
-        <v>56.7501948198675</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I10">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J10">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N10">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O10">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P10">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q10">
-        <v>3119.46867725009</v>
+        <v>84.90444833406934</v>
       </c>
       <c r="R10">
-        <v>3119.46867725009</v>
+        <v>764.1400350066241</v>
       </c>
       <c r="S10">
-        <v>0.05616675355277237</v>
+        <v>0.001388127073614395</v>
       </c>
       <c r="T10">
-        <v>0.05616675355277237</v>
+        <v>0.001388127073614395</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.7501948198675</v>
+        <v>1.448602</v>
       </c>
       <c r="H11">
-        <v>56.7501948198675</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I11">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J11">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N11">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O11">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P11">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q11">
-        <v>3388.820862177628</v>
+        <v>86.87632207438666</v>
       </c>
       <c r="R11">
-        <v>3388.820862177628</v>
+        <v>781.88689866948</v>
       </c>
       <c r="S11">
-        <v>0.06101650181280689</v>
+        <v>0.001420365800540855</v>
       </c>
       <c r="T11">
-        <v>0.06101650181280689</v>
+        <v>0.001420365800540855</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.7501948198675</v>
+        <v>1.448602</v>
       </c>
       <c r="H12">
-        <v>56.7501948198675</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I12">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J12">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N12">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O12">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P12">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q12">
-        <v>643.2112764757413</v>
+        <v>17.04232255987067</v>
       </c>
       <c r="R12">
-        <v>643.2112764757413</v>
+        <v>153.380903038836</v>
       </c>
       <c r="S12">
-        <v>0.01158116749549294</v>
+        <v>0.0002786297986360407</v>
       </c>
       <c r="T12">
-        <v>0.01158116749549294</v>
+        <v>0.0002786297986360407</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.7501948198675</v>
+        <v>1.448602</v>
       </c>
       <c r="H13">
-        <v>56.7501948198675</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I13">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J13">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N13">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O13">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P13">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q13">
-        <v>1086.98496791384</v>
+        <v>29.64405950521801</v>
       </c>
       <c r="R13">
-        <v>1086.98496791384</v>
+        <v>266.796535546962</v>
       </c>
       <c r="S13">
-        <v>0.01957141523927865</v>
+        <v>0.0004846591948765687</v>
       </c>
       <c r="T13">
-        <v>0.01957141523927865</v>
+        <v>0.0004846591948765686</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.6615799112946</v>
+        <v>63.544816</v>
       </c>
       <c r="H14">
-        <v>78.6615799112946</v>
+        <v>190.634448</v>
       </c>
       <c r="I14">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J14">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N14">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O14">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P14">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q14">
-        <v>231.1173307123672</v>
+        <v>485.7995887798667</v>
       </c>
       <c r="R14">
-        <v>231.1173307123672</v>
+        <v>4372.1962990188</v>
       </c>
       <c r="S14">
-        <v>0.004161320884728158</v>
+        <v>0.007942476216119265</v>
       </c>
       <c r="T14">
-        <v>0.004161320884728158</v>
+        <v>0.007942476216119267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.6615799112946</v>
+        <v>63.544816</v>
       </c>
       <c r="H15">
-        <v>78.6615799112946</v>
+        <v>190.634448</v>
       </c>
       <c r="I15">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J15">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N15">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O15">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P15">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q15">
-        <v>2946.839612343272</v>
+        <v>2382.482947952886</v>
       </c>
       <c r="R15">
-        <v>2946.839612343272</v>
+        <v>21442.34653157597</v>
       </c>
       <c r="S15">
-        <v>0.05305852739381824</v>
+        <v>0.03895189412768342</v>
       </c>
       <c r="T15">
-        <v>0.05305852739381824</v>
+        <v>0.03895189412768343</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.6615799112946</v>
+        <v>63.544816</v>
       </c>
       <c r="H16">
-        <v>78.6615799112946</v>
+        <v>190.634448</v>
       </c>
       <c r="I16">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J16">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N16">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O16">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P16">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q16">
-        <v>4323.902947208619</v>
+        <v>3724.444358747221</v>
       </c>
       <c r="R16">
-        <v>4323.902947208619</v>
+        <v>33519.99922872499</v>
       </c>
       <c r="S16">
-        <v>0.07785287058437819</v>
+        <v>0.06089200448255987</v>
       </c>
       <c r="T16">
-        <v>0.07785287058437819</v>
+        <v>0.06089200448255987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>78.6615799112946</v>
+        <v>63.544816</v>
       </c>
       <c r="H17">
-        <v>78.6615799112946</v>
+        <v>190.634448</v>
       </c>
       <c r="I17">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J17">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N17">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O17">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P17">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q17">
-        <v>4697.252650874161</v>
+        <v>3810.943172088426</v>
       </c>
       <c r="R17">
-        <v>4697.252650874161</v>
+        <v>34298.48854879584</v>
       </c>
       <c r="S17">
-        <v>0.08457511817343516</v>
+        <v>0.06230619828500948</v>
       </c>
       <c r="T17">
-        <v>0.08457511817343516</v>
+        <v>0.06230619828500949</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>78.6615799112946</v>
+        <v>63.544816</v>
       </c>
       <c r="H18">
-        <v>78.6615799112946</v>
+        <v>190.634448</v>
       </c>
       <c r="I18">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J18">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N18">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O18">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P18">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q18">
-        <v>891.5566789671941</v>
+        <v>747.5837057242987</v>
       </c>
       <c r="R18">
-        <v>891.5566789671941</v>
+        <v>6728.25335151869</v>
       </c>
       <c r="S18">
-        <v>0.01605268378909386</v>
+        <v>0.01222245950678258</v>
       </c>
       <c r="T18">
-        <v>0.01605268378909386</v>
+        <v>0.01222245950678258</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>78.6615799112946</v>
+        <v>63.544816</v>
       </c>
       <c r="H19">
-        <v>78.6615799112946</v>
+        <v>190.634448</v>
       </c>
       <c r="I19">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J19">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N19">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O19">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P19">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q19">
-        <v>1506.67244733399</v>
+        <v>1300.375332045744</v>
       </c>
       <c r="R19">
-        <v>1506.67244733399</v>
+        <v>11703.3779884117</v>
       </c>
       <c r="S19">
-        <v>0.02712798517623206</v>
+        <v>0.02126020767687722</v>
       </c>
       <c r="T19">
-        <v>0.02712798517623206</v>
+        <v>0.02126020767687722</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.104519420532</v>
+        <v>80.516767</v>
       </c>
       <c r="H20">
-        <v>160.104519420532</v>
+        <v>241.550301</v>
       </c>
       <c r="I20">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J20">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N20">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O20">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P20">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q20">
-        <v>470.4066356814512</v>
+        <v>615.5500127419416</v>
       </c>
       <c r="R20">
-        <v>470.4066356814512</v>
+        <v>5539.950114677475</v>
       </c>
       <c r="S20">
-        <v>0.008469780052159391</v>
+        <v>0.01006380295280604</v>
       </c>
       <c r="T20">
-        <v>0.008469780052159391</v>
+        <v>0.01006380295280604</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.104519420532</v>
+        <v>80.516767</v>
       </c>
       <c r="H21">
-        <v>160.104519420532</v>
+        <v>241.550301</v>
       </c>
       <c r="I21">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J21">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N21">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O21">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P21">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q21">
-        <v>5997.875207638219</v>
+        <v>3018.811548715407</v>
       </c>
       <c r="R21">
-        <v>5997.875207638219</v>
+        <v>27169.30393843866</v>
       </c>
       <c r="S21">
-        <v>0.1079931275106345</v>
+        <v>0.04935541215018003</v>
       </c>
       <c r="T21">
-        <v>0.1079931275106345</v>
+        <v>0.04935541215018003</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>160.104519420532</v>
+        <v>80.516767</v>
       </c>
       <c r="H22">
-        <v>160.104519420532</v>
+        <v>241.550301</v>
       </c>
       <c r="I22">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J22">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N22">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O22">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P22">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q22">
-        <v>8800.692843501578</v>
+        <v>4719.192493022789</v>
       </c>
       <c r="R22">
-        <v>8800.692843501578</v>
+        <v>42472.7324372051</v>
       </c>
       <c r="S22">
-        <v>0.1584585059755584</v>
+        <v>0.07715542581923958</v>
       </c>
       <c r="T22">
-        <v>0.1584585059755584</v>
+        <v>0.07715542581923956</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>160.104519420532</v>
+        <v>80.516767</v>
       </c>
       <c r="H23">
-        <v>160.104519420532</v>
+        <v>241.550301</v>
       </c>
       <c r="I23">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J23">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N23">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O23">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P23">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q23">
-        <v>9560.593355906452</v>
+        <v>4828.793956021286</v>
       </c>
       <c r="R23">
-        <v>9560.593355906452</v>
+        <v>43459.14560419157</v>
       </c>
       <c r="S23">
-        <v>0.1721406900975336</v>
+        <v>0.07894733143880546</v>
       </c>
       <c r="T23">
-        <v>0.1721406900975336</v>
+        <v>0.07894733143880546</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>160.104519420532</v>
+        <v>80.516767</v>
       </c>
       <c r="H24">
-        <v>160.104519420532</v>
+        <v>241.550301</v>
       </c>
       <c r="I24">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J24">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N24">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O24">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P24">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q24">
-        <v>1814.637511516757</v>
+        <v>947.2530858662008</v>
       </c>
       <c r="R24">
-        <v>1814.637511516757</v>
+        <v>8525.277772795806</v>
       </c>
       <c r="S24">
-        <v>0.03267296723967286</v>
+        <v>0.01548691122615805</v>
       </c>
       <c r="T24">
-        <v>0.03267296723967286</v>
+        <v>0.01548691122615805</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>160.104519420532</v>
+        <v>80.516767</v>
       </c>
       <c r="H25">
-        <v>160.104519420532</v>
+        <v>241.550301</v>
       </c>
       <c r="I25">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J25">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N25">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O25">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P25">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q25">
-        <v>3066.618651399972</v>
+        <v>1647.687792862203</v>
       </c>
       <c r="R25">
-        <v>3066.618651399972</v>
+        <v>14829.19013575983</v>
       </c>
       <c r="S25">
-        <v>0.05521517663878394</v>
+        <v>0.02693851828748288</v>
       </c>
       <c r="T25">
-        <v>0.05521517663878394</v>
+        <v>0.02693851828748287</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.32922140286671</v>
+        <v>164.0922063333333</v>
       </c>
       <c r="H26">
-        <v>2.32922140286671</v>
+        <v>492.276619</v>
       </c>
       <c r="I26">
-        <v>0.007782525880524646</v>
+        <v>0.5256937141001443</v>
       </c>
       <c r="J26">
-        <v>0.007782525880524646</v>
+        <v>0.5256937141001443</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N26">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O26">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P26">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q26">
-        <v>6.84353700848277</v>
+        <v>1254.48354998328</v>
       </c>
       <c r="R26">
-        <v>6.84353700848277</v>
+        <v>11290.35194984952</v>
       </c>
       <c r="S26">
-        <v>0.0001232194634259227</v>
+        <v>0.02050990982573677</v>
       </c>
       <c r="T26">
-        <v>0.0001232194634259227</v>
+        <v>0.02050990982573677</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.32922140286671</v>
+        <v>164.0922063333333</v>
       </c>
       <c r="H27">
-        <v>2.32922140286671</v>
+        <v>492.276619</v>
       </c>
       <c r="I27">
-        <v>0.007782525880524646</v>
+        <v>0.5256937141001443</v>
       </c>
       <c r="J27">
-        <v>0.007782525880524646</v>
+        <v>0.5256937141001443</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N27">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O27">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P27">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q27">
-        <v>87.25786977105766</v>
+        <v>6152.301762603784</v>
       </c>
       <c r="R27">
-        <v>87.25786977105766</v>
+        <v>55370.71586343405</v>
       </c>
       <c r="S27">
-        <v>0.00157109808561735</v>
+        <v>0.1005857385482709</v>
       </c>
       <c r="T27">
-        <v>0.00157109808561735</v>
+        <v>0.1005857385482709</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.32922140286671</v>
+        <v>164.0922063333333</v>
       </c>
       <c r="H28">
-        <v>2.32922140286671</v>
+        <v>492.276619</v>
       </c>
       <c r="I28">
-        <v>0.007782525880524646</v>
+        <v>0.5256937141001443</v>
       </c>
       <c r="J28">
-        <v>0.007782525880524646</v>
+        <v>0.5256937141001443</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N28">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O28">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P28">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q28">
-        <v>128.0336258172546</v>
+        <v>9617.657751854507</v>
       </c>
       <c r="R28">
-        <v>128.0336258172546</v>
+        <v>86558.91976669057</v>
       </c>
       <c r="S28">
-        <v>0.002305274984868549</v>
+        <v>0.1572418332850704</v>
       </c>
       <c r="T28">
-        <v>0.002305274984868549</v>
+        <v>0.1572418332850704</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.32922140286671</v>
+        <v>164.0922063333333</v>
       </c>
       <c r="H29">
-        <v>2.32922140286671</v>
+        <v>492.276619</v>
       </c>
       <c r="I29">
-        <v>0.007782525880524646</v>
+        <v>0.5256937141001443</v>
       </c>
       <c r="J29">
-        <v>0.007782525880524646</v>
+        <v>0.5256937141001443</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N29">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O29">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P29">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q29">
-        <v>139.0887574521947</v>
+        <v>9841.024220118001</v>
       </c>
       <c r="R29">
-        <v>139.0887574521947</v>
+        <v>88569.21798106201</v>
       </c>
       <c r="S29">
-        <v>0.002504325181641325</v>
+        <v>0.1608937154657802</v>
       </c>
       <c r="T29">
-        <v>0.002504325181641325</v>
+        <v>0.1608937154657802</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.32922140286671</v>
+        <v>164.0922063333333</v>
       </c>
       <c r="H30">
-        <v>2.32922140286671</v>
+        <v>492.276619</v>
       </c>
       <c r="I30">
-        <v>0.007782525880524646</v>
+        <v>0.5256937141001443</v>
       </c>
       <c r="J30">
-        <v>0.007782525880524646</v>
+        <v>0.5256937141001443</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N30">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O30">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P30">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q30">
-        <v>26.39958288227797</v>
+        <v>1930.490438293968</v>
       </c>
       <c r="R30">
-        <v>26.39958288227797</v>
+        <v>17374.41394464572</v>
       </c>
       <c r="S30">
-        <v>0.0004753305832043202</v>
+        <v>0.03156213950305212</v>
       </c>
       <c r="T30">
-        <v>0.0004753305832043202</v>
+        <v>0.03156213950305212</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H31">
+        <v>492.276619</v>
+      </c>
+      <c r="I31">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J31">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>20.463909</v>
+      </c>
+      <c r="N31">
+        <v>61.391727</v>
+      </c>
+      <c r="O31">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="P31">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="Q31">
+        <v>3357.967978014557</v>
+      </c>
+      <c r="R31">
+        <v>30221.71180213101</v>
+      </c>
+      <c r="S31">
+        <v>0.05490037747223399</v>
+      </c>
+      <c r="T31">
+        <v>0.05490037747223398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.406739</v>
+      </c>
+      <c r="H32">
+        <v>7.220217</v>
+      </c>
+      <c r="I32">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J32">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.644991666666666</v>
+      </c>
+      <c r="N32">
+        <v>22.934975</v>
+      </c>
+      <c r="O32">
+        <v>0.03901494211481031</v>
+      </c>
+      <c r="P32">
+        <v>0.03901494211481031</v>
+      </c>
+      <c r="Q32">
+        <v>18.39949959884166</v>
+      </c>
+      <c r="R32">
+        <v>165.595496389575</v>
+      </c>
+      <c r="S32">
+        <v>0.0003008186736413977</v>
+      </c>
+      <c r="T32">
+        <v>0.0003008186736413977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.406739</v>
+      </c>
+      <c r="H33">
+        <v>7.220217</v>
+      </c>
+      <c r="I33">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J33">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>37.49295533333333</v>
+      </c>
+      <c r="N33">
+        <v>112.478866</v>
+      </c>
+      <c r="O33">
+        <v>0.1913390551386913</v>
+      </c>
+      <c r="P33">
+        <v>0.1913390551386913</v>
+      </c>
+      <c r="Q33">
+        <v>90.23575782599133</v>
+      </c>
+      <c r="R33">
+        <v>812.1218204339219</v>
+      </c>
+      <c r="S33">
+        <v>0.001475290175062694</v>
+      </c>
+      <c r="T33">
+        <v>0.001475290175062694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.406739</v>
+      </c>
+      <c r="H34">
+        <v>7.220217</v>
+      </c>
+      <c r="I34">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J34">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>58.61130133333333</v>
+      </c>
+      <c r="N34">
+        <v>175.833904</v>
+      </c>
+      <c r="O34">
+        <v>0.2991130178420127</v>
+      </c>
+      <c r="P34">
+        <v>0.2991130178420126</v>
+      </c>
+      <c r="Q34">
+        <v>141.0621047596853</v>
+      </c>
+      <c r="R34">
+        <v>1269.558942837168</v>
+      </c>
+      <c r="S34">
+        <v>0.002306264636541739</v>
+      </c>
+      <c r="T34">
+        <v>0.002306264636541738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.406739</v>
+      </c>
+      <c r="H35">
+        <v>7.220217</v>
+      </c>
+      <c r="I35">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J35">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>59.97252666666666</v>
+      </c>
+      <c r="N35">
+        <v>179.91758</v>
+      </c>
+      <c r="O35">
+        <v>0.3060598046929091</v>
+      </c>
+      <c r="P35">
+        <v>0.3060598046929091</v>
+      </c>
+      <c r="Q35">
+        <v>144.3382188572066</v>
+      </c>
+      <c r="R35">
+        <v>1299.04396971486</v>
+      </c>
+      <c r="S35">
+        <v>0.002359826761545197</v>
+      </c>
+      <c r="T35">
+        <v>0.002359826761545197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.32922140286671</v>
-      </c>
-      <c r="H31">
-        <v>2.32922140286671</v>
-      </c>
-      <c r="I31">
-        <v>0.007782525880524646</v>
-      </c>
-      <c r="J31">
-        <v>0.007782525880524646</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>19.1538543852417</v>
-      </c>
-      <c r="N31">
-        <v>19.1538543852417</v>
-      </c>
-      <c r="O31">
-        <v>0.1032155362023709</v>
-      </c>
-      <c r="P31">
-        <v>0.1032155362023709</v>
-      </c>
-      <c r="Q31">
-        <v>44.61356758149736</v>
-      </c>
-      <c r="R31">
-        <v>44.61356758149736</v>
-      </c>
-      <c r="S31">
-        <v>0.0008032775817671805</v>
-      </c>
-      <c r="T31">
-        <v>0.0008032775817671805</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.406739</v>
+      </c>
+      <c r="H36">
+        <v>7.220217</v>
+      </c>
+      <c r="I36">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J36">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.76466866666667</v>
+      </c>
+      <c r="N36">
+        <v>35.294006</v>
+      </c>
+      <c r="O36">
+        <v>0.06003902777699859</v>
+      </c>
+      <c r="P36">
+        <v>0.06003902777699859</v>
+      </c>
+      <c r="Q36">
+        <v>28.31448690214467</v>
+      </c>
+      <c r="R36">
+        <v>254.830382119302</v>
+      </c>
+      <c r="S36">
+        <v>0.0004629216326772336</v>
+      </c>
+      <c r="T36">
+        <v>0.0004629216326772336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.406739</v>
+      </c>
+      <c r="H37">
+        <v>7.220217</v>
+      </c>
+      <c r="I37">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J37">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>20.463909</v>
+      </c>
+      <c r="N37">
+        <v>61.391727</v>
+      </c>
+      <c r="O37">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="P37">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="Q37">
+        <v>49.251287882751</v>
+      </c>
+      <c r="R37">
+        <v>443.261590944759</v>
+      </c>
+      <c r="S37">
+        <v>0.0008052233712351894</v>
+      </c>
+      <c r="T37">
+        <v>0.0008052233712351893</v>
       </c>
     </row>
   </sheetData>
